--- a/xls_ref.xlsx
+++ b/xls_ref.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="86">
   <si>
     <t>^^(DR)</t>
   </si>
@@ -231,9 +231,6 @@
     <t>E7(R)</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>^^(UL)</t>
   </si>
   <si>
@@ -250,6 +247,33 @@
   </si>
   <si>
     <t>O_</t>
+  </si>
+  <si>
+    <t>E8:I10</t>
+  </si>
+  <si>
+    <t>^^(D):H.(DR)</t>
+  </si>
+  <si>
+    <t>^^(D):G.(DR)</t>
+  </si>
+  <si>
+    <t>E8:I8</t>
+  </si>
+  <si>
+    <t>^^(D):M11(LU)</t>
+  </si>
+  <si>
+    <t>^^(R):..(DR)</t>
+  </si>
+  <si>
+    <t>F3:G5</t>
+  </si>
+  <si>
+    <t>A5(R):..(RU)</t>
+  </si>
+  <si>
+    <t>F3:L5</t>
   </si>
 </sst>
 </file>
@@ -744,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:AH28"/>
+  <dimension ref="D1:AH34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="AD35" sqref="AD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -755,9 +779,9 @@
     <col min="1" max="3" width="4.42578125" style="1"/>
     <col min="4" max="4" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="27" width="4.42578125" style="1"/>
-    <col min="28" max="28" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="3" style="1" bestFit="1" customWidth="1"/>
@@ -1555,10 +1579,7 @@
         <v>23</v>
       </c>
       <c r="AD25" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF25" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="4:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1569,38 +1590,84 @@
         <v>23</v>
       </c>
       <c r="AD26" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF26" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="4:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AB27" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC27" s="12" t="s">
         <v>23</v>
       </c>
       <c r="AD27" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF27" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="4:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AB28" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC28" s="12" t="s">
         <v>23</v>
       </c>
       <c r="AD28" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF28" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="4:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC30" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD30" s="1" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="4:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC31" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD31" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="4:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC32" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD32" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="28:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC33" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD33" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="28:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC34" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD34" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
